--- a/src/slot.xlsx
+++ b/src/slot.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">

--- a/src/slot.xlsx
+++ b/src/slot.xlsx
@@ -460,19 +460,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>SLOT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SLOT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SLOT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SLOT</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>SLOT</t>
@@ -480,7 +480,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SLOT</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
